--- a/Task 2/assessment Bubble sorting.xlsx
+++ b/Task 2/assessment Bubble sorting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m018410o\comp-Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m018410o\Documents\GitHub\comp-Methods\Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7707B155-4907-4FA6-A946-98CBAFBEF454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DFEB48-A8A5-4CBA-8F6E-BDC7535C3671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E350AD1B-E9DE-4F75-951B-B824961261A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E350AD1B-E9DE-4F75-951B-B824961261A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,12 +124,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -469,380 +469,380 @@
   <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K27"/>
+      <selection activeCell="U12" sqref="U12:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3">
-        <v>25</v>
-      </c>
-      <c r="H13" s="3">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2">
-        <v>28</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3">
-        <v>25</v>
-      </c>
-      <c r="I15" s="3">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2">
-        <v>28</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3">
-        <v>25</v>
-      </c>
-      <c r="J17" s="2">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3">
-        <v>20</v>
-      </c>
-      <c r="H19" s="3">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>17</v>
+      </c>
+      <c r="K19" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3">
-        <v>20</v>
-      </c>
-      <c r="I21" s="3">
-        <v>17</v>
-      </c>
-      <c r="J21" s="4">
-        <v>25</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>16</v>
-      </c>
-      <c r="G23" s="3">
-        <v>14</v>
-      </c>
-      <c r="H23" s="4">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4">
-        <v>20</v>
-      </c>
-      <c r="J23" s="4">
-        <v>25</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="B23" s="3">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3">
+        <v>25</v>
+      </c>
+      <c r="K23" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4">
-        <v>17</v>
-      </c>
-      <c r="I25" s="4">
-        <v>20</v>
-      </c>
-      <c r="J25" s="4">
-        <v>25</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3">
+        <v>20</v>
+      </c>
+      <c r="J25" s="3">
+        <v>25</v>
+      </c>
+      <c r="K25" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4">
-        <v>12</v>
-      </c>
-      <c r="D27" s="4">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4">
-        <v>16</v>
-      </c>
-      <c r="H27" s="4">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4">
-        <v>20</v>
-      </c>
-      <c r="J27" s="4">
-        <v>25</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3">
+        <v>16</v>
+      </c>
+      <c r="H27" s="3">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3">
+        <v>20</v>
+      </c>
+      <c r="J27" s="3">
+        <v>25</v>
+      </c>
+      <c r="K27" s="3">
         <v>28</v>
       </c>
     </row>
